--- a/src/assets/lab2/Академики.xlsx
+++ b/src/assets/lab2/Академики.xlsx
@@ -143,6 +143,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -202,12 +203,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -334,296 +339,296 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="35.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.06"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>-5170</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>-11002</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>1913</v>
+      </c>
+    </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>-5170</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1939</v>
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>-16606</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>1903</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>-11002</v>
-      </c>
-      <c r="C5" s="0" t="s">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>-19327</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>-13306</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>-13442</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>-16466</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D8" s="1" t="n">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>-11727</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>-12729</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>-19350</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>-14061</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>-14268</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1" t="n">
         <v>1913</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>-16606</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="0" t="n">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>-12776</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>-16378</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>-13244</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1" t="n">
         <v>1903</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>-19327</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1902</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>-13306</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1910</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>-13442</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1908</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>-16466</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="0" t="n">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>-18357</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>-10925</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="1" t="n">
         <v>1914</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>-11727</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1916</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>-12729</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1907</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>-19350</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>1889</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>-14061</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1906</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>-14268</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>1913</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>-12776</v>
-      </c>
-      <c r="C16" s="0" t="s">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>-15697</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>1912</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>-16378</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>1906</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>-13244</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>1903</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>-18357</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>1907</v>
+      <c r="D19" s="1" t="n">
+        <v>1900</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>-10925</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>1914</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>-15697</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B20" s="2" t="n">
         <v>-13139</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D20" s="1" t="n">
         <v>1912</v>
       </c>
     </row>
